--- a/translations.xlsx
+++ b/translations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualbertaca-my.sharepoint.com/personal/ajchan_ualberta_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{736CB35D-D17E-4588-BB56-A2302EFD9BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E6CC66-D49F-475E-9792-5C6143BD9FCE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB03CA4D-18CB-48AE-939D-1C2B82C10EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{A21F795E-848C-434B-839E-A09DEBFA70A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,307 +36,448 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>hello</t>
   </si>
   <si>
+    <t>안녕하세요</t>
+  </si>
+  <si>
+    <t>annyeonghaseyo</t>
+  </si>
+  <si>
     <t>goodmorning</t>
   </si>
   <si>
+    <t>좋은 아침이에요</t>
+  </si>
+  <si>
+    <t>joh-eun achim-ieyo</t>
+  </si>
+  <si>
     <t>goodnight</t>
   </si>
   <si>
+    <t>안녕히 주무세요</t>
+  </si>
+  <si>
+    <t>annyeonghi jumuseyo</t>
+  </si>
+  <si>
     <t>hungry</t>
   </si>
   <si>
+    <t>굶주린</t>
+  </si>
+  <si>
+    <t>gulmjulin</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
+    <t>음식</t>
+  </si>
+  <si>
+    <t>eumsig</t>
+  </si>
+  <si>
     <t>pizza</t>
   </si>
   <si>
+    <t>피자</t>
+  </si>
+  <si>
+    <t>pija</t>
+  </si>
+  <si>
     <t>sushi</t>
   </si>
   <si>
-    <t>안녕하세요</t>
-  </si>
-  <si>
-    <t>좋은 아침이에요</t>
-  </si>
-  <si>
-    <t>안녕히 주무세요</t>
+    <t>초밥</t>
+  </si>
+  <si>
+    <t>chobab</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>죽이다</t>
+  </si>
+  <si>
+    <t>jug-ida</t>
   </si>
   <si>
     <t>laptop</t>
   </si>
   <si>
+    <t>랩탑</t>
+  </si>
+  <si>
+    <t>laebtab</t>
+  </si>
+  <si>
     <t>games</t>
   </si>
   <si>
-    <t>굶주린</t>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>geim</t>
   </si>
   <si>
     <t>party</t>
   </si>
   <si>
+    <t>파티</t>
+  </si>
+  <si>
+    <t>pati</t>
+  </si>
+  <si>
     <t>thirsty</t>
   </si>
   <si>
-    <t>음식</t>
+    <t>목마른</t>
+  </si>
+  <si>
+    <t>mogmaleun</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
+    <t>죄송합니다</t>
+  </si>
+  <si>
+    <t>joesonghabnida</t>
+  </si>
+  <si>
     <t>cars</t>
   </si>
   <si>
+    <t>자동차</t>
+  </si>
+  <si>
+    <t>jadongcha</t>
+  </si>
+  <si>
     <t>fast</t>
   </si>
   <si>
+    <t>빠른</t>
+  </si>
+  <si>
+    <t>ppaleun</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>피자</t>
+    <t>느린</t>
+  </si>
+  <si>
+    <t>neulin</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
+    <t>놀다</t>
+  </si>
+  <si>
+    <t>nolda</t>
+  </si>
+  <si>
     <t>tired</t>
   </si>
   <si>
-    <t>초밥</t>
+    <t>피곤한</t>
+  </si>
+  <si>
+    <t>pigonhan</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>일하다</t>
+  </si>
+  <si>
+    <t>ilhada</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>숨다</t>
+  </si>
+  <si>
+    <t>sumda</t>
   </si>
   <si>
     <t>hurray</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>죽이다</t>
+    <t>만세</t>
+  </si>
+  <si>
+    <t>manse</t>
   </si>
   <si>
     <t>celebration</t>
   </si>
   <si>
+    <t>축하</t>
+  </si>
+  <si>
+    <t>chugha</t>
+  </si>
+  <si>
     <t>cheers</t>
   </si>
   <si>
-    <t>랩탑</t>
+    <t>건배</t>
+  </si>
+  <si>
+    <t>geonbae</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>독서</t>
+  </si>
+  <si>
+    <t>dogseo</t>
   </si>
   <si>
     <t>show</t>
   </si>
   <si>
-    <t>게임</t>
+    <t>보여주다</t>
+  </si>
+  <si>
+    <t>boyeojuda</t>
   </si>
   <si>
     <t>music</t>
   </si>
   <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>eum-ag</t>
+  </si>
+  <si>
     <t>taxi</t>
   </si>
   <si>
-    <t>파티</t>
-  </si>
-  <si>
-    <t>목마른</t>
-  </si>
-  <si>
-    <t>죄송합니다</t>
+    <t>택시</t>
+  </si>
+  <si>
+    <t>taegsi</t>
   </si>
   <si>
     <t>movie</t>
   </si>
   <si>
-    <t>자동차</t>
-  </si>
-  <si>
-    <t>빠른</t>
-  </si>
-  <si>
-    <t>느린</t>
+    <t>영화</t>
+  </si>
+  <si>
+    <t>yeonghwa</t>
   </si>
   <si>
     <t>bed</t>
   </si>
   <si>
+    <t>침대</t>
+  </si>
+  <si>
+    <t>chimdae</t>
+  </si>
+  <si>
     <t>pijamas</t>
   </si>
   <si>
-    <t>놀다</t>
+    <t>잠옷</t>
+  </si>
+  <si>
+    <t>jam-os</t>
   </si>
   <si>
     <t>pillow</t>
   </si>
   <si>
+    <t>베개</t>
+  </si>
+  <si>
+    <t>begae</t>
+  </si>
+  <si>
     <t>stuffed animal</t>
   </si>
   <si>
-    <t>피곤한</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hide</t>
+    <t>동물 인형</t>
+  </si>
+  <si>
+    <t>dongmul inhyeong</t>
   </si>
   <si>
     <t>blanket</t>
   </si>
   <si>
-    <t>일하다</t>
-  </si>
-  <si>
-    <t>숨다</t>
+    <t>담요</t>
+  </si>
+  <si>
+    <t>dam-yo</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>피아노</t>
   </si>
   <si>
     <t>mouse</t>
   </si>
   <si>
-    <t>만세</t>
+    <t>마우스</t>
+  </si>
+  <si>
+    <t>mauseu</t>
   </si>
   <si>
     <t>speaker</t>
   </si>
   <si>
+    <t>스피커</t>
+  </si>
+  <si>
+    <t>seupikeo</t>
+  </si>
+  <si>
     <t>controller</t>
   </si>
   <si>
-    <t>축하</t>
+    <t>조종장치</t>
+  </si>
+  <si>
+    <t>jojongjangchi</t>
   </si>
   <si>
     <t>ruler</t>
   </si>
   <si>
+    <t>자</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
     <t>pencil</t>
   </si>
   <si>
-    <t>건배</t>
+    <t>연필</t>
+  </si>
+  <si>
+    <t>yeonpil</t>
   </si>
   <si>
     <t>pen</t>
   </si>
   <si>
+    <t>펜</t>
+  </si>
+  <si>
     <t>calculator</t>
   </si>
   <si>
+    <t>계산기</t>
+  </si>
+  <si>
+    <t>gyesangi</t>
+  </si>
+  <si>
     <t>paper</t>
   </si>
   <si>
-    <t>독서</t>
-  </si>
-  <si>
-    <t>read</t>
+    <t>종이</t>
+  </si>
+  <si>
+    <t>jong-i</t>
   </si>
   <si>
     <t>letter</t>
   </si>
   <si>
+    <t>편지</t>
+  </si>
+  <si>
+    <t>pyeonji</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>보여주다</t>
+    <t>선물</t>
+  </si>
+  <si>
+    <t>seonmul</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>돈</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
     <t>chocolate</t>
   </si>
   <si>
-    <t>음악</t>
+    <t>초콜릿</t>
+  </si>
+  <si>
+    <t>chokollis</t>
   </si>
   <si>
     <t>milk</t>
   </si>
   <si>
-    <t>택시</t>
+    <t>우유</t>
+  </si>
+  <si>
+    <t>uyu</t>
   </si>
   <si>
     <t>candy</t>
   </si>
   <si>
-    <t>영화</t>
+    <t>사탕</t>
+  </si>
+  <si>
+    <t>satang</t>
   </si>
   <si>
     <t>weather</t>
   </si>
   <si>
-    <t>침대</t>
-  </si>
-  <si>
-    <t>잠옷</t>
-  </si>
-  <si>
-    <t>베개</t>
-  </si>
-  <si>
-    <t>동물 인형</t>
-  </si>
-  <si>
-    <t>담요</t>
-  </si>
-  <si>
-    <t>piano</t>
-  </si>
-  <si>
-    <t>피아노</t>
-  </si>
-  <si>
-    <t>마우스</t>
-  </si>
-  <si>
-    <t>스피커</t>
-  </si>
-  <si>
-    <t>조종장치</t>
-  </si>
-  <si>
-    <t>자</t>
-  </si>
-  <si>
-    <t>연필</t>
-  </si>
-  <si>
-    <t>펜</t>
-  </si>
-  <si>
-    <t>계산자</t>
-  </si>
-  <si>
-    <t>종이</t>
-  </si>
-  <si>
-    <t>편지</t>
-  </si>
-  <si>
-    <t>선물</t>
-  </si>
-  <si>
-    <t>돈</t>
-  </si>
-  <si>
-    <t>초콜릿</t>
-  </si>
-  <si>
-    <t>우유</t>
-  </si>
-  <si>
-    <t>사탕</t>
-  </si>
-  <si>
     <t>날씨</t>
+  </si>
+  <si>
+    <t>nalssi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,10 +523,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,417 +822,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B243892-02FB-4FF7-BDC1-F971A12FF8BD}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.06640625" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1289,6 +1576,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1297,52 +1590,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518AF853-76AC-4E00-94B7-D8DD49C0CD23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0bf77fb0-83cd-49cd-8d03-39a6d40e9c2d"/>
-    <ds:schemaRef ds:uri="d9142e7f-4dea-426d-a969-0f3daaa7f3db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518AF853-76AC-4E00-94B7-D8DD49C0CD23}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4E7EF0-DC54-46B4-A7E2-A33680E70AAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B429FC-8719-4EC2-976D-5777B617B954}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B429FC-8719-4EC2-976D-5777B617B954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0bf77fb0-83cd-49cd-8d03-39a6d40e9c2d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d9142e7f-4dea-426d-a969-0f3daaa7f3db"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4E7EF0-DC54-46B4-A7E2-A33680E70AAE}"/>
 </file>